--- a/drishti-tools/upload_forms/examples/6 Hemavathi Keelanapura.xlsx
+++ b/drishti-tools/upload_forms/examples/6 Hemavathi Keelanapura.xlsx
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EC register'!$B$1:$R$441</definedName>
     <definedName name="House_Hold_Information">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="787">
   <si>
     <t/>
   </si>
@@ -1688,9 +1688,6 @@
   </si>
   <si>
     <t>Mangla</t>
-  </si>
-  <si>
-    <t>Madavagere</t>
   </si>
   <si>
     <t>Vashim pasha</t>
@@ -2393,6 +2390,9 @@
   </si>
   <si>
     <t>27/05/2011</t>
+  </si>
+  <si>
+    <t>29230040113a</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2522,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2530,8 +2530,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2580,8 +2581,11 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
@@ -2589,6 +2593,7 @@
     <cellStyle name="Normal_ANC" xfId="6"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
     <cellStyle name="Normal_Sheet1_1" xfId="5"/>
+    <cellStyle name="Normal_Sheet4" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2887,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J447" sqref="J447"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2912,63 +2917,63 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="70.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>507</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>506</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B2" s="2">
         <v>29230040138</v>
@@ -3003,7 +3008,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B3" s="2">
         <v>29230040138</v>
@@ -3033,12 +3038,12 @@
         <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B4" s="2">
         <v>29230040138</v>
@@ -3067,7 +3072,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B5" s="2">
         <v>29230040138</v>
@@ -3097,12 +3102,12 @@
         <v>26</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B6" s="2">
         <v>29230040138</v>
@@ -3137,7 +3142,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B7" s="2">
         <v>29230040138</v>
@@ -3167,12 +3172,12 @@
         <v>26</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B8" s="2">
         <v>29230040138</v>
@@ -3202,12 +3207,12 @@
         <v>26</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B9" s="2">
         <v>29230040138</v>
@@ -3237,12 +3242,12 @@
         <v>26</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B10" s="2">
         <v>29230040138</v>
@@ -3275,12 +3280,12 @@
         <v>26</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B11" s="2">
         <v>29230040138</v>
@@ -3309,7 +3314,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B12" s="2">
         <v>29230040138</v>
@@ -3344,7 +3349,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B13" s="2">
         <v>29230040138</v>
@@ -3373,7 +3378,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="2">
         <v>29230040138</v>
@@ -3414,7 +3419,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B15" s="2">
         <v>29230040138</v>
@@ -3444,12 +3449,12 @@
         <v>26</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B16" s="2">
         <v>29230040138</v>
@@ -3479,12 +3484,12 @@
         <v>26</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B17" s="2">
         <v>29230040138</v>
@@ -3514,12 +3519,12 @@
         <v>26</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B18" s="2">
         <v>29230040138</v>
@@ -3549,12 +3554,12 @@
         <v>26</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B19" s="2">
         <v>29230040138</v>
@@ -3584,12 +3589,12 @@
         <v>26</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B20" s="2">
         <v>29230040138</v>
@@ -3619,12 +3624,12 @@
         <v>26</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B21" s="2">
         <v>29230040138</v>
@@ -3654,12 +3659,12 @@
         <v>26</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B22" s="2">
         <v>29230040138</v>
@@ -3694,7 +3699,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B23" s="2">
         <v>29230040138</v>
@@ -3724,12 +3729,12 @@
         <v>26</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B24" s="2">
         <v>29230040138</v>
@@ -3764,7 +3769,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B25" s="2">
         <v>29230040138</v>
@@ -3793,7 +3798,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B26" s="2">
         <v>29230040138</v>
@@ -3823,12 +3828,12 @@
         <v>26</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B27" s="2">
         <v>29230040138</v>
@@ -3861,12 +3866,12 @@
         <v>26</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B28" s="2">
         <v>29230040138</v>
@@ -3896,12 +3901,12 @@
         <v>26</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B29" s="2">
         <v>29230040138</v>
@@ -3931,12 +3936,12 @@
         <v>26</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B30" s="2">
         <v>29230040138</v>
@@ -3966,12 +3971,12 @@
         <v>26</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B31" s="2">
         <v>29230040138</v>
@@ -4006,7 +4011,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B32" s="2">
         <v>29230040138</v>
@@ -4039,12 +4044,12 @@
         <v>26</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B33" s="2">
         <v>29230040138</v>
@@ -4074,12 +4079,12 @@
         <v>26</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B34" s="2">
         <v>29230040138</v>
@@ -4109,12 +4114,12 @@
         <v>26</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B35" s="2">
         <v>29230040138</v>
@@ -4144,12 +4149,12 @@
         <v>26</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B36" s="2">
         <v>29230040138</v>
@@ -4182,12 +4187,12 @@
         <v>26</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B37" s="2">
         <v>29230040138</v>
@@ -4220,12 +4225,12 @@
         <v>26</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B38" s="2">
         <v>29230040138</v>
@@ -4255,12 +4260,12 @@
         <v>26</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B39" s="2">
         <v>29230040138</v>
@@ -4290,12 +4295,12 @@
         <v>26</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B40" s="2">
         <v>29230040138</v>
@@ -4325,12 +4330,12 @@
         <v>26</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B41" s="2">
         <v>29230040138</v>
@@ -4360,12 +4365,12 @@
         <v>26</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B42" s="2">
         <v>29230040138</v>
@@ -4395,12 +4400,12 @@
         <v>26</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B43" s="2">
         <v>29230040138</v>
@@ -4433,12 +4438,12 @@
         <v>26</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B44" s="2">
         <v>29230040138</v>
@@ -4473,7 +4478,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B45" s="2">
         <v>29230040138</v>
@@ -4503,12 +4508,12 @@
         <v>26</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B46" s="2">
         <v>29230040113</v>
@@ -4540,7 +4545,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B47" s="2">
         <v>29230040113</v>
@@ -4575,7 +4580,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B48" s="2">
         <v>29230040113</v>
@@ -4605,12 +4610,12 @@
         <v>26</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B49" s="2">
         <v>29230040113</v>
@@ -4645,7 +4650,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B50" s="2">
         <v>29230040113</v>
@@ -4675,12 +4680,12 @@
         <v>26</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B51" s="2">
         <v>29230040113</v>
@@ -4710,12 +4715,12 @@
         <v>26</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B52" s="2">
         <v>29230040113</v>
@@ -4745,12 +4750,12 @@
         <v>26</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B53" s="2">
         <v>29230040113</v>
@@ -4780,12 +4785,12 @@
         <v>26</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B54" s="2">
         <v>29230040113</v>
@@ -4818,12 +4823,12 @@
         <v>26</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B55" s="2">
         <v>29230040113</v>
@@ -4856,12 +4861,12 @@
         <v>26</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B56" s="2">
         <v>29230040113</v>
@@ -4891,12 +4896,12 @@
         <v>26</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B57" s="2">
         <v>29230040113</v>
@@ -4926,12 +4931,12 @@
         <v>26</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B58" s="2">
         <v>29230040113</v>
@@ -4961,12 +4966,12 @@
         <v>26</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B59" s="2">
         <v>29230040113</v>
@@ -4996,12 +5001,12 @@
         <v>26</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B60" s="2">
         <v>29230040113</v>
@@ -5031,12 +5036,12 @@
         <v>26</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B61" s="2">
         <v>29230040113</v>
@@ -5066,12 +5071,12 @@
         <v>26</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B62" s="2">
         <v>29230040113</v>
@@ -5101,12 +5106,12 @@
         <v>26</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B63" s="2">
         <v>29230040113</v>
@@ -5135,7 +5140,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B64" s="2">
         <v>29230040113</v>
@@ -5168,12 +5173,12 @@
         <v>26</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B65" s="2">
         <v>29230040113</v>
@@ -5203,12 +5208,12 @@
         <v>26</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B66" s="2">
         <v>29230040113</v>
@@ -5238,12 +5243,12 @@
         <v>26</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B67" s="2">
         <v>29230040113</v>
@@ -5273,12 +5278,12 @@
         <v>26</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B68" s="2">
         <v>29230040113</v>
@@ -5308,12 +5313,12 @@
         <v>26</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B69" s="2">
         <v>29230040113</v>
@@ -5343,12 +5348,12 @@
         <v>26</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B70" s="2">
         <v>29230040113</v>
@@ -5378,12 +5383,12 @@
         <v>26</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B71" s="2">
         <v>29230040113</v>
@@ -5416,12 +5421,12 @@
         <v>26</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B72" s="2">
         <v>29230040113</v>
@@ -5451,12 +5456,12 @@
         <v>26</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B73" s="2">
         <v>29230040113</v>
@@ -5486,12 +5491,12 @@
         <v>26</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B74" s="2">
         <v>29230040113</v>
@@ -5521,12 +5526,12 @@
         <v>26</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B75" s="2">
         <v>29230040113</v>
@@ -5553,12 +5558,12 @@
         <v>0</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B76" s="2">
         <v>29230040113</v>
@@ -5588,12 +5593,12 @@
         <v>26</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B77" s="2">
         <v>29230040113</v>
@@ -5623,12 +5628,12 @@
         <v>26</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B78" s="2">
         <v>29230040113</v>
@@ -5658,12 +5663,12 @@
         <v>26</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B79" s="2">
         <v>29230040113</v>
@@ -5693,12 +5698,12 @@
         <v>26</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B80" s="2">
         <v>29230040113</v>
@@ -5728,12 +5733,12 @@
         <v>26</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B81" s="2">
         <v>29230040113</v>
@@ -5765,7 +5770,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B82" s="2">
         <v>29230040113</v>
@@ -5800,7 +5805,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B83" s="2">
         <v>29230040113</v>
@@ -5830,12 +5835,12 @@
         <v>26</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B84" s="2">
         <v>29230040113</v>
@@ -5865,12 +5870,12 @@
         <v>26</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B85" s="2">
         <v>29230040113</v>
@@ -5900,12 +5905,12 @@
         <v>26</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B86" s="2">
         <v>29230040113</v>
@@ -5940,7 +5945,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B87" s="2">
         <v>29230040113</v>
@@ -5970,12 +5975,12 @@
         <v>26</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B88" s="2">
         <v>29230040113</v>
@@ -6005,12 +6010,12 @@
         <v>26</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B89" s="2">
         <v>29230040113</v>
@@ -6040,12 +6045,12 @@
         <v>26</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B90" s="2">
         <v>29230040113</v>
@@ -6077,7 +6082,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B91" s="2">
         <v>29230040113</v>
@@ -6110,12 +6115,12 @@
         <v>26</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B92" s="2">
         <v>29230040113</v>
@@ -6145,12 +6150,12 @@
         <v>26</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B93" s="2">
         <v>29230040113</v>
@@ -6180,12 +6185,12 @@
         <v>26</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B94" s="2">
         <v>29230040113</v>
@@ -6215,12 +6220,12 @@
         <v>26</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B95" s="2">
         <v>29230040113</v>
@@ -6255,7 +6260,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B96" s="2">
         <v>29230040113</v>
@@ -6285,12 +6290,12 @@
         <v>26</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B97" s="2">
         <v>29230040113</v>
@@ -6322,7 +6327,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B98" s="2">
         <v>29230040113</v>
@@ -6352,12 +6357,12 @@
         <v>26</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B99" s="2">
         <v>29230040113</v>
@@ -6387,12 +6392,12 @@
         <v>26</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B100" s="2">
         <v>29230040113</v>
@@ -6422,12 +6427,12 @@
         <v>26</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B101" s="2">
         <v>29230040113</v>
@@ -6454,12 +6459,12 @@
         <v>26</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B102" s="2">
         <v>29230040113</v>
@@ -6489,12 +6494,12 @@
         <v>26</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B103" s="2">
         <v>29230040113</v>
@@ -6524,12 +6529,12 @@
         <v>26</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B104" s="2">
         <v>29230040113</v>
@@ -6564,7 +6569,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B105" s="2">
         <v>29230040113</v>
@@ -6596,7 +6601,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B106" s="2">
         <v>29230040113</v>
@@ -6626,12 +6631,12 @@
         <v>26</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B107" s="2">
         <v>29230040113</v>
@@ -6661,12 +6666,12 @@
         <v>26</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B108" s="2">
         <v>29230040113</v>
@@ -6696,12 +6701,12 @@
         <v>26</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B109" s="2">
         <v>29230040113</v>
@@ -6731,12 +6736,12 @@
         <v>26</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B110" s="2">
         <v>29230040113</v>
@@ -6766,12 +6771,12 @@
         <v>26</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B111" s="2">
         <v>29230040113</v>
@@ -6801,12 +6806,12 @@
         <v>26</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B112" s="2">
         <v>29230040113</v>
@@ -6841,7 +6846,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B113" s="2">
         <v>29230040113</v>
@@ -6873,7 +6878,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B114" s="2">
         <v>29230040113</v>
@@ -6905,7 +6910,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B115" s="2">
         <v>29230040113</v>
@@ -6935,12 +6940,12 @@
         <v>26</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B116" s="2">
         <v>29230040113</v>
@@ -6970,12 +6975,12 @@
         <v>26</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B117" s="2">
         <v>29230040113</v>
@@ -7005,12 +7010,12 @@
         <v>26</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B118" s="2">
         <v>29230040113</v>
@@ -7040,12 +7045,12 @@
         <v>26</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B119" s="2">
         <v>29230040113</v>
@@ -7077,7 +7082,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B120" s="2">
         <v>29230040113</v>
@@ -7107,12 +7112,12 @@
         <v>26</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B121" s="2">
         <v>29230040113</v>
@@ -7142,12 +7147,12 @@
         <v>26</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B122" s="2">
         <v>29230040113</v>
@@ -7177,12 +7182,12 @@
         <v>26</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B123" s="2">
         <v>29230040113</v>
@@ -7212,12 +7217,12 @@
         <v>26</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B124" s="2">
         <v>29230040113</v>
@@ -7247,12 +7252,12 @@
         <v>26</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B125" s="2">
         <v>29230040113</v>
@@ -7282,12 +7287,12 @@
         <v>26</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B126" s="2">
         <v>29230040113</v>
@@ -7319,7 +7324,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B127" s="2">
         <v>29230040113</v>
@@ -7349,12 +7354,12 @@
         <v>26</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B128" s="2">
         <v>29230040113</v>
@@ -7384,12 +7389,12 @@
         <v>26</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B129" s="2">
         <v>29230040113</v>
@@ -7419,12 +7424,12 @@
         <v>26</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B130" s="2">
         <v>29230040113</v>
@@ -7457,12 +7462,12 @@
         <v>26</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B131" s="2">
         <v>29230040113</v>
@@ -7495,12 +7500,12 @@
         <v>26</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B132" s="2">
         <v>29230040113</v>
@@ -7530,12 +7535,12 @@
         <v>26</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B133" s="2">
         <v>29230040113</v>
@@ -7565,12 +7570,12 @@
         <v>26</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B134" s="2">
         <v>29230040113</v>
@@ -7600,12 +7605,12 @@
         <v>26</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B135" s="2">
         <v>29230040113</v>
@@ -7637,7 +7642,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B136" s="2">
         <v>29230040113</v>
@@ -7667,12 +7672,12 @@
         <v>26</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B137" s="2">
         <v>29230040113</v>
@@ -7702,12 +7707,12 @@
         <v>26</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B138" s="2">
         <v>29230040113</v>
@@ -7737,12 +7742,12 @@
         <v>26</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B139" s="2">
         <v>29230040113</v>
@@ -7772,12 +7777,12 @@
         <v>26</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B140" s="2">
         <v>29230040113</v>
@@ -7806,7 +7811,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B141" s="2">
         <v>29230040113</v>
@@ -7839,12 +7844,12 @@
         <v>26</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B142" s="2">
         <v>29230040113</v>
@@ -7874,12 +7879,12 @@
         <v>26</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B143" s="2">
         <v>29230040113</v>
@@ -7912,12 +7917,12 @@
         <v>26</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B144" s="2">
         <v>29230040113</v>
@@ -7947,12 +7952,12 @@
         <v>26</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B145" s="2">
         <v>29230040113</v>
@@ -7982,12 +7987,12 @@
         <v>26</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B146" s="2">
         <v>29230040113</v>
@@ -8017,12 +8022,12 @@
         <v>26</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B147" s="2">
         <v>29230040113</v>
@@ -8052,12 +8057,12 @@
         <v>26</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B148" s="2">
         <v>29230040113</v>
@@ -8087,12 +8092,12 @@
         <v>26</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B149" s="2">
         <v>29230040113</v>
@@ -8122,12 +8127,12 @@
         <v>26</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B150" s="2">
         <v>29230040113</v>
@@ -8157,12 +8162,12 @@
         <v>26</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B151" s="2">
         <v>29230040113</v>
@@ -8191,7 +8196,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B152" s="2">
         <v>29230040113</v>
@@ -8224,12 +8229,12 @@
         <v>26</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B153" s="2">
         <v>29230040113</v>
@@ -8262,12 +8267,12 @@
         <v>26</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B154" s="2">
         <v>29230040113</v>
@@ -8297,12 +8302,12 @@
         <v>26</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B155" s="2">
         <v>29230040113</v>
@@ -8331,7 +8336,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B156" s="2">
         <v>29230040113</v>
@@ -8361,12 +8366,12 @@
         <v>26</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B157" s="2">
         <v>29230040113</v>
@@ -8395,7 +8400,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B158" s="2">
         <v>29230040113</v>
@@ -8425,12 +8430,12 @@
         <v>26</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B159" s="2">
         <v>29230040113</v>
@@ -8468,7 +8473,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B160" s="2">
         <v>29230040113</v>
@@ -8500,7 +8505,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B161" s="2">
         <v>29230040113</v>
@@ -8530,12 +8535,12 @@
         <v>26</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B162" s="2">
         <v>29230040113</v>
@@ -8565,12 +8570,12 @@
         <v>26</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B163" s="2">
         <v>29230040113</v>
@@ -8600,12 +8605,12 @@
         <v>26</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B164" s="2">
         <v>29230040113</v>
@@ -8635,12 +8640,12 @@
         <v>26</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B165" s="2">
         <v>29230040113</v>
@@ -8670,12 +8675,12 @@
         <v>26</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B166" s="2">
         <v>29230040113</v>
@@ -8704,7 +8709,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B167" s="2">
         <v>29230040113</v>
@@ -8734,12 +8739,12 @@
         <v>26</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B168" s="2">
         <v>29230040113</v>
@@ -8769,12 +8774,12 @@
         <v>26</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B169" s="2">
         <v>29230040113</v>
@@ -8809,7 +8814,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B170" s="2">
         <v>29230040113</v>
@@ -8842,12 +8847,12 @@
         <v>26</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B171" s="2">
         <v>29230040113</v>
@@ -8877,12 +8882,12 @@
         <v>26</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B172" s="2">
         <v>29230040113</v>
@@ -8912,12 +8917,12 @@
         <v>26</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B173" s="2">
         <v>29230040113</v>
@@ -8953,12 +8958,12 @@
         <v>0</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B174" s="2">
         <v>29230040113</v>
@@ -8988,12 +8993,12 @@
         <v>26</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B175" s="2">
         <v>29230040113</v>
@@ -9023,12 +9028,12 @@
         <v>26</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B176" s="2">
         <v>29230040113</v>
@@ -9063,7 +9068,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B177" s="2">
         <v>29230040113</v>
@@ -9093,12 +9098,12 @@
         <v>26</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B178" s="2">
         <v>29230040113</v>
@@ -9131,12 +9136,12 @@
         <v>26</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B179" s="2">
         <v>29230040113</v>
@@ -9168,7 +9173,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B180" s="2">
         <v>29230040113</v>
@@ -9198,12 +9203,12 @@
         <v>26</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B181" s="2">
         <v>29230040113</v>
@@ -9233,12 +9238,12 @@
         <v>26</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B182" s="2">
         <v>29230040113</v>
@@ -9267,7 +9272,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B183" s="2">
         <v>29230040113</v>
@@ -9305,7 +9310,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B184" s="2">
         <v>29230040113</v>
@@ -9335,12 +9340,12 @@
         <v>26</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B185" s="2">
         <v>29230040113</v>
@@ -9370,12 +9375,12 @@
         <v>26</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B186" s="2">
         <v>29230040113</v>
@@ -9405,12 +9410,12 @@
         <v>26</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B187" s="2">
         <v>29230040113</v>
@@ -9440,12 +9445,12 @@
         <v>26</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B188" s="2">
         <v>29230040113</v>
@@ -9475,12 +9480,12 @@
         <v>26</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B189" s="2">
         <v>29230040113</v>
@@ -9510,12 +9515,12 @@
         <v>26</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B190" s="2">
         <v>29230040113</v>
@@ -9545,12 +9550,12 @@
         <v>26</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B191" s="2">
         <v>29230040113</v>
@@ -9580,12 +9585,12 @@
         <v>26</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B192" s="2">
         <v>29230040113</v>
@@ -9615,12 +9620,12 @@
         <v>26</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B193" s="2">
         <v>29230040113</v>
@@ -9650,12 +9655,12 @@
         <v>26</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B194" s="2">
         <v>29230040113</v>
@@ -9685,12 +9690,12 @@
         <v>26</v>
       </c>
       <c r="O194" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B195" s="2">
         <v>29230040113</v>
@@ -9723,12 +9728,12 @@
         <v>26</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B196" s="2">
         <v>29230040113</v>
@@ -9758,12 +9763,12 @@
         <v>26</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B197" s="2">
         <v>29230040113</v>
@@ -9799,12 +9804,12 @@
         <v>0</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B198" s="2">
         <v>29230040113</v>
@@ -9839,7 +9844,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B199" s="2">
         <v>29230040113</v>
@@ -9869,12 +9874,12 @@
         <v>26</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B200" s="2">
         <v>29230040113</v>
@@ -9904,12 +9909,12 @@
         <v>26</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B201" s="2">
         <v>29230040113</v>
@@ -9941,7 +9946,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B202" s="2">
         <v>29230040113</v>
@@ -9971,12 +9976,12 @@
         <v>26</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B203" s="2">
         <v>29230040113</v>
@@ -10006,12 +10011,12 @@
         <v>26</v>
       </c>
       <c r="O203" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B204" s="2">
         <v>29230040113</v>
@@ -10041,12 +10046,12 @@
         <v>26</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B205" s="2">
         <v>29230040113</v>
@@ -10075,7 +10080,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B206" s="2">
         <v>29230040113</v>
@@ -10105,12 +10110,12 @@
         <v>26</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B207" s="2">
         <v>29230040113</v>
@@ -10145,7 +10150,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B208" s="2">
         <v>29230040113</v>
@@ -10180,7 +10185,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B209" s="2">
         <v>29230040113</v>
@@ -10210,12 +10215,12 @@
         <v>26</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B210" s="2">
         <v>29230040113</v>
@@ -10242,12 +10247,12 @@
         <v>0</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B211" s="2">
         <v>29230040113</v>
@@ -10276,7 +10281,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B212" s="2">
         <v>29230040113</v>
@@ -10306,12 +10311,12 @@
         <v>26</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B213" s="2">
         <v>29230040113</v>
@@ -10341,12 +10346,12 @@
         <v>26</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B214" s="2">
         <v>29230040113</v>
@@ -10376,12 +10381,12 @@
         <v>26</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B215" s="2">
         <v>29230040113</v>
@@ -10410,7 +10415,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B216" s="2">
         <v>29230040113</v>
@@ -10440,12 +10445,12 @@
         <v>26</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B217" s="2">
         <v>29230040113</v>
@@ -10480,7 +10485,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B218" s="2">
         <v>29230040113</v>
@@ -10515,7 +10520,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B219" s="2">
         <v>29230040113</v>
@@ -10553,7 +10558,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B220" s="2">
         <v>29230040113</v>
@@ -10583,12 +10588,12 @@
         <v>26</v>
       </c>
       <c r="O220" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B221" s="2">
         <v>29230040113</v>
@@ -10618,12 +10623,12 @@
         <v>26</v>
       </c>
       <c r="O221" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B222" s="2">
         <v>29230040113</v>
@@ -10653,12 +10658,12 @@
         <v>26</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B223" s="2">
         <v>29230040113</v>
@@ -10688,12 +10693,12 @@
         <v>26</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B224" s="2">
         <v>29230040113</v>
@@ -10722,7 +10727,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B225" s="2">
         <v>29230040113</v>
@@ -10751,7 +10756,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B226" s="2">
         <v>29230040113</v>
@@ -10780,7 +10785,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B227" s="2">
         <v>29230040113</v>
@@ -10812,7 +10817,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B228" s="2">
         <v>29230040113</v>
@@ -10842,12 +10847,12 @@
         <v>26</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B229" s="2">
         <v>29230040113</v>
@@ -10877,12 +10882,12 @@
         <v>26</v>
       </c>
       <c r="O229" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B230" s="2">
         <v>29230040113</v>
@@ -10918,12 +10923,12 @@
         <v>26</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B231" s="2">
         <v>29230040113</v>
@@ -10952,7 +10957,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B232" s="2">
         <v>29230040113</v>
@@ -10984,7 +10989,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B233" s="2">
         <v>29230040113</v>
@@ -11014,12 +11019,12 @@
         <v>26</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B234" s="2">
         <v>29230040113</v>
@@ -11049,12 +11054,12 @@
         <v>26</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B235" s="2">
         <v>29230040113</v>
@@ -11084,12 +11089,12 @@
         <v>26</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B236" s="2">
         <v>29230040113</v>
@@ -11119,12 +11124,12 @@
         <v>26</v>
       </c>
       <c r="O236" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B237" s="2">
         <v>29230040113</v>
@@ -11154,12 +11159,12 @@
         <v>26</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B238" s="2">
         <v>29230040113</v>
@@ -11189,12 +11194,12 @@
         <v>26</v>
       </c>
       <c r="O238" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B239" s="2">
         <v>29230040113</v>
@@ -11224,12 +11229,12 @@
         <v>407</v>
       </c>
       <c r="O239" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B240" s="2">
         <v>29230040113</v>
@@ -11259,12 +11264,12 @@
         <v>26</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B241" s="2">
         <v>29230040113</v>
@@ -11294,12 +11299,12 @@
         <v>26</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B242" s="2">
         <v>29230040113</v>
@@ -11329,12 +11334,12 @@
         <v>26</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B243" s="2">
         <v>29230040113</v>
@@ -11363,7 +11368,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B244" s="2">
         <v>29230040113</v>
@@ -11393,12 +11398,12 @@
         <v>26</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B245" s="2">
         <v>29230040113</v>
@@ -11428,12 +11433,12 @@
         <v>26</v>
       </c>
       <c r="O245" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B246" s="2">
         <v>29230040113</v>
@@ -11463,12 +11468,12 @@
         <v>26</v>
       </c>
       <c r="O246" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B247" s="2">
         <v>29230040113</v>
@@ -11498,12 +11503,12 @@
         <v>26</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B248" s="2">
         <v>29230040113</v>
@@ -11538,7 +11543,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B249" s="2">
         <v>29230040113</v>
@@ -11568,12 +11573,12 @@
         <v>26</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B250" s="2">
         <v>29230040113</v>
@@ -11603,12 +11608,12 @@
         <v>26</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B251" s="2">
         <v>29230040113</v>
@@ -11640,7 +11645,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B252" s="2">
         <v>29230040113</v>
@@ -11670,12 +11675,12 @@
         <v>26</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B253" s="2">
         <v>29230040113</v>
@@ -11705,12 +11710,12 @@
         <v>26</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B254" s="2">
         <v>29230040113</v>
@@ -11740,12 +11745,12 @@
         <v>26</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B255" s="2">
         <v>29230040113</v>
@@ -11780,7 +11785,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B256" s="2">
         <v>29230040113</v>
@@ -11815,7 +11820,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B257" s="2">
         <v>29230040113</v>
@@ -11847,7 +11852,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B258" s="2">
         <v>29230040113</v>
@@ -11877,12 +11882,12 @@
         <v>26</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B259" s="2">
         <v>29230040113</v>
@@ -11912,12 +11917,12 @@
         <v>26</v>
       </c>
       <c r="O259" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B260" s="2">
         <v>29230040113</v>
@@ -11947,12 +11952,12 @@
         <v>26</v>
       </c>
       <c r="O260" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B261" s="2">
         <v>29230040113</v>
@@ -11982,12 +11987,12 @@
         <v>26</v>
       </c>
       <c r="O261" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B262" s="2">
         <v>29230040113</v>
@@ -12017,12 +12022,12 @@
         <v>26</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B263" s="2">
         <v>29230040113</v>
@@ -12052,12 +12057,12 @@
         <v>26</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B264" s="2">
         <v>29230040113</v>
@@ -12087,12 +12092,15 @@
         <v>26</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B265" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>11</v>
@@ -12124,7 +12132,10 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B266" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>11</v>
@@ -12153,7 +12164,10 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B267" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>11</v>
@@ -12180,12 +12194,15 @@
         <v>26</v>
       </c>
       <c r="O267" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B268" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>11</v>
@@ -12212,12 +12229,15 @@
         <v>26</v>
       </c>
       <c r="O268" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B269" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>11</v>
@@ -12247,12 +12267,15 @@
         <v>26</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B270" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>11</v>
@@ -12282,12 +12305,15 @@
         <v>26</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B271" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>11</v>
@@ -12319,7 +12345,10 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B272" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>11</v>
@@ -12348,7 +12377,10 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B273" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>11</v>
@@ -12375,12 +12407,15 @@
         <v>26</v>
       </c>
       <c r="O273" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B274" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>11</v>
@@ -12407,12 +12442,15 @@
         <v>26</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B275" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>11</v>
@@ -12436,12 +12474,15 @@
         <v>0</v>
       </c>
       <c r="O275" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B276" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>11</v>
@@ -12468,12 +12509,15 @@
         <v>26</v>
       </c>
       <c r="O276" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B277" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>11</v>
@@ -12500,12 +12544,15 @@
         <v>26</v>
       </c>
       <c r="O277" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B278" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>11</v>
@@ -12532,12 +12579,15 @@
         <v>26</v>
       </c>
       <c r="O278" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B279" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>11</v>
@@ -12561,12 +12611,15 @@
         <v>0</v>
       </c>
       <c r="O279" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B280" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>11</v>
@@ -12593,12 +12646,15 @@
         <v>26</v>
       </c>
       <c r="O280" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B281" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>11</v>
@@ -12627,7 +12683,10 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B282" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>11</v>
@@ -12654,12 +12713,15 @@
         <v>26</v>
       </c>
       <c r="O282" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B283" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>11</v>
@@ -12686,12 +12748,15 @@
         <v>26</v>
       </c>
       <c r="O283" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B284" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>11</v>
@@ -12718,12 +12783,15 @@
         <v>26</v>
       </c>
       <c r="O284" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B285" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>11</v>
@@ -12755,7 +12823,10 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B286" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>11</v>
@@ -12782,12 +12853,15 @@
         <v>26</v>
       </c>
       <c r="O286" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B287" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>11</v>
@@ -12814,12 +12888,15 @@
         <v>26</v>
       </c>
       <c r="O287" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B288" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>11</v>
@@ -12849,12 +12926,15 @@
         <v>26</v>
       </c>
       <c r="O288" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B289" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>11</v>
@@ -12881,12 +12961,15 @@
         <v>26</v>
       </c>
       <c r="O289" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="B290" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>11</v>
@@ -12913,12 +12996,15 @@
         <v>26</v>
       </c>
       <c r="O290" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B291" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>11</v>
@@ -12947,7 +13033,10 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B292" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>11</v>
@@ -12974,12 +13063,15 @@
         <v>26</v>
       </c>
       <c r="O292" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B293" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>11</v>
@@ -13006,12 +13098,15 @@
         <v>26</v>
       </c>
       <c r="O293" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B294" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>11</v>
@@ -13038,12 +13133,15 @@
         <v>26</v>
       </c>
       <c r="O294" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B295" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>11</v>
@@ -13069,7 +13167,10 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B296" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>11</v>
@@ -13096,12 +13197,15 @@
         <v>26</v>
       </c>
       <c r="O296" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B297" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>11</v>
@@ -13128,12 +13232,15 @@
         <v>26</v>
       </c>
       <c r="O297" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+      <c r="B298" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>11</v>
@@ -13160,12 +13267,15 @@
         <v>26</v>
       </c>
       <c r="O298" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B299" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>11</v>
@@ -13192,12 +13302,15 @@
         <v>26</v>
       </c>
       <c r="O299" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B300" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>11</v>
@@ -13227,12 +13340,15 @@
         <v>26</v>
       </c>
       <c r="O300" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B301" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>11</v>
@@ -13261,7 +13377,10 @@
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
+      </c>
+      <c r="B302" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>11</v>
@@ -13288,12 +13407,15 @@
         <v>26</v>
       </c>
       <c r="O302" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
+      </c>
+      <c r="B303" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>11</v>
@@ -13320,12 +13442,15 @@
         <v>26</v>
       </c>
       <c r="O303" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B304" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>11</v>
@@ -13352,12 +13477,15 @@
         <v>26</v>
       </c>
       <c r="O304" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="305" spans="1:15">
       <c r="A305" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>11</v>
@@ -13389,7 +13517,10 @@
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B306" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>11</v>
@@ -13421,7 +13552,10 @@
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>11</v>
@@ -13448,12 +13582,15 @@
         <v>26</v>
       </c>
       <c r="O307" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B308" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>11</v>
@@ -13480,12 +13617,15 @@
         <v>26</v>
       </c>
       <c r="O308" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B309" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>11</v>
@@ -13512,12 +13652,15 @@
         <v>26</v>
       </c>
       <c r="O309" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B310" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>11</v>
@@ -13544,12 +13687,15 @@
         <v>26</v>
       </c>
       <c r="O310" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>11</v>
@@ -13576,12 +13722,15 @@
         <v>26</v>
       </c>
       <c r="O311" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="B312" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>11</v>
@@ -13608,12 +13757,15 @@
         <v>26</v>
       </c>
       <c r="O312" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="313" spans="1:15">
       <c r="A313" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B313" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>11</v>
@@ -13637,12 +13789,15 @@
         <v>0</v>
       </c>
       <c r="O313" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="314" spans="1:15">
       <c r="A314" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B314" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>11</v>
@@ -13669,12 +13824,15 @@
         <v>26</v>
       </c>
       <c r="O314" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="315" spans="1:15">
       <c r="A315" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B315" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>11</v>
@@ -13706,7 +13864,10 @@
     </row>
     <row r="316" spans="1:15">
       <c r="A316" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B316" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>11</v>
@@ -13733,12 +13894,15 @@
         <v>26</v>
       </c>
       <c r="O316" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="317" spans="1:15">
       <c r="A317" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B317" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>11</v>
@@ -13765,12 +13929,15 @@
         <v>26</v>
       </c>
       <c r="O317" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B318" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>11</v>
@@ -13796,7 +13963,10 @@
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B319" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>11</v>
@@ -13823,12 +13993,15 @@
         <v>26</v>
       </c>
       <c r="O319" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B320" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>11</v>
@@ -13855,12 +14028,15 @@
         <v>26</v>
       </c>
       <c r="O320" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="321" spans="1:15">
       <c r="A321" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B321" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>11</v>
@@ -13887,12 +14063,15 @@
         <v>26</v>
       </c>
       <c r="O321" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="322" spans="1:15">
       <c r="A322" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B322" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>11</v>
@@ -13919,12 +14098,15 @@
         <v>26</v>
       </c>
       <c r="O322" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B323" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>11</v>
@@ -13951,12 +14133,15 @@
         <v>26</v>
       </c>
       <c r="O323" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B324" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>11</v>
@@ -13980,12 +14165,15 @@
         <v>0</v>
       </c>
       <c r="O324" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B325" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>11</v>
@@ -14012,12 +14200,15 @@
         <v>26</v>
       </c>
       <c r="O325" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B326" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>11</v>
@@ -14044,12 +14235,15 @@
         <v>26</v>
       </c>
       <c r="O326" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="327" spans="1:15">
       <c r="A327" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B327" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>11</v>
@@ -14076,12 +14270,15 @@
         <v>26</v>
       </c>
       <c r="O327" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
+      </c>
+      <c r="B328" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>11</v>
@@ -14108,12 +14305,15 @@
         <v>26</v>
       </c>
       <c r="O328" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="329" spans="1:15">
       <c r="A329" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
+      </c>
+      <c r="B329" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>11</v>
@@ -14140,12 +14340,15 @@
         <v>26</v>
       </c>
       <c r="O329" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B330" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>11</v>
@@ -14172,12 +14375,15 @@
         <v>26</v>
       </c>
       <c r="O330" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="331" spans="1:15">
       <c r="A331" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B331" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>11</v>
@@ -14204,12 +14410,15 @@
         <v>26</v>
       </c>
       <c r="O331" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="332" spans="1:15">
       <c r="A332" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B332" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>11</v>
@@ -14236,12 +14445,15 @@
         <v>26</v>
       </c>
       <c r="O332" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="333" spans="1:15">
       <c r="A333" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B333" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>11</v>
@@ -14268,12 +14480,15 @@
         <v>26</v>
       </c>
       <c r="O333" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="334" spans="1:15">
       <c r="A334" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B334" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>11</v>
@@ -14303,12 +14518,15 @@
         <v>0</v>
       </c>
       <c r="O334" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="335" spans="1:15">
       <c r="A335" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B335" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>11</v>
@@ -14335,12 +14553,15 @@
         <v>26</v>
       </c>
       <c r="O335" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="336" spans="1:15">
       <c r="A336" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B336" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>11</v>
@@ -14358,7 +14579,7 @@
         <v>74</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K336" s="6">
         <v>2</v>
@@ -14367,12 +14588,15 @@
         <v>26</v>
       </c>
       <c r="O336" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="337" spans="1:15">
       <c r="A337" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B337" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>11</v>
@@ -14399,12 +14623,15 @@
         <v>0</v>
       </c>
       <c r="O337" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B338" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>11</v>
@@ -14431,12 +14658,15 @@
         <v>26</v>
       </c>
       <c r="O338" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B339" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>11</v>
@@ -14463,12 +14693,15 @@
         <v>26</v>
       </c>
       <c r="O339" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B340" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>11</v>
@@ -14494,7 +14727,10 @@
     </row>
     <row r="341" spans="1:15">
       <c r="A341" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B341" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>11</v>
@@ -14521,12 +14757,15 @@
         <v>26</v>
       </c>
       <c r="O341" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B342" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>11</v>
@@ -14555,7 +14794,10 @@
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B343" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>11</v>
@@ -14582,12 +14824,15 @@
         <v>26</v>
       </c>
       <c r="O343" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="344" spans="1:15">
       <c r="A344" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B344" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>11</v>
@@ -14613,7 +14858,10 @@
     </row>
     <row r="345" spans="1:15">
       <c r="A345" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="B345" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>11</v>
@@ -14640,12 +14888,15 @@
         <v>26</v>
       </c>
       <c r="O345" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="346" spans="1:15">
       <c r="A346" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="B346" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>11</v>
@@ -14671,7 +14922,10 @@
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="B347" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>11</v>
@@ -14697,7 +14951,10 @@
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B348" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>11</v>
@@ -14724,12 +14981,15 @@
         <v>26</v>
       </c>
       <c r="O348" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="349" spans="1:15">
       <c r="A349" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B349" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>11</v>
@@ -14756,12 +15016,15 @@
         <v>26</v>
       </c>
       <c r="O349" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
+      </c>
+      <c r="B350" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>11</v>
@@ -14788,12 +15051,15 @@
         <v>26</v>
       </c>
       <c r="O350" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="351" spans="1:15">
       <c r="A351" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
+      </c>
+      <c r="B351" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>11</v>
@@ -14820,12 +15086,15 @@
         <v>26</v>
       </c>
       <c r="O351" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="352" spans="1:15">
       <c r="A352" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B352" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>11</v>
@@ -14852,12 +15121,15 @@
         <v>26</v>
       </c>
       <c r="O352" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="353" spans="1:15">
       <c r="A353" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B353" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>11</v>
@@ -14884,12 +15156,15 @@
         <v>26</v>
       </c>
       <c r="O353" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B354" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>11</v>
@@ -14913,12 +15188,15 @@
         <v>0</v>
       </c>
       <c r="O354" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="355" spans="1:15">
       <c r="A355" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B355" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>11</v>
@@ -14945,12 +15223,15 @@
         <v>26</v>
       </c>
       <c r="O355" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="356" spans="1:15">
       <c r="A356" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B356" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>11</v>
@@ -14980,12 +15261,15 @@
         <v>0</v>
       </c>
       <c r="O356" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="357" spans="1:15">
       <c r="A357" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B357" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>11</v>
@@ -15012,12 +15296,15 @@
         <v>26</v>
       </c>
       <c r="O357" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B358" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>11</v>
@@ -15044,12 +15331,15 @@
         <v>26</v>
       </c>
       <c r="O358" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B359" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>11</v>
@@ -15076,12 +15366,15 @@
         <v>26</v>
       </c>
       <c r="O359" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B360" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>11</v>
@@ -15108,12 +15401,15 @@
         <v>26</v>
       </c>
       <c r="O360" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="361" spans="1:15">
       <c r="A361" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+      <c r="B361" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>11</v>
@@ -15145,7 +15441,10 @@
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B362" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>11</v>
@@ -15174,7 +15473,10 @@
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B363" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>11</v>
@@ -15203,7 +15505,10 @@
     </row>
     <row r="364" spans="1:15">
       <c r="A364" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B364" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>11</v>
@@ -15232,7 +15537,10 @@
     </row>
     <row r="365" spans="1:15">
       <c r="A365" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B365" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>11</v>
@@ -15258,7 +15566,10 @@
     </row>
     <row r="366" spans="1:15">
       <c r="A366" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B366" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>11</v>
@@ -15284,7 +15595,10 @@
     </row>
     <row r="367" spans="1:15">
       <c r="A367" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B367" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>11</v>
@@ -15311,12 +15625,15 @@
         <v>26</v>
       </c>
       <c r="O367" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B368" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>11</v>
@@ -15348,7 +15665,10 @@
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B369" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>11</v>
@@ -15375,12 +15695,15 @@
         <v>26</v>
       </c>
       <c r="O369" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B370" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>11</v>
@@ -15412,7 +15735,10 @@
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B371" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>11</v>
@@ -15439,12 +15765,15 @@
         <v>26</v>
       </c>
       <c r="O371" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B372" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>11</v>
@@ -15471,12 +15800,15 @@
         <v>26</v>
       </c>
       <c r="O372" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="373" spans="1:15">
       <c r="A373" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+      <c r="B373" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>11</v>
@@ -15503,12 +15835,15 @@
         <v>26</v>
       </c>
       <c r="O373" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="B374" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>11</v>
@@ -15535,12 +15870,15 @@
         <v>26</v>
       </c>
       <c r="O374" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="375" spans="1:15">
       <c r="A375" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B375" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>11</v>
@@ -15567,12 +15905,15 @@
         <v>26</v>
       </c>
       <c r="O375" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B376" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>11</v>
@@ -15599,12 +15940,15 @@
         <v>26</v>
       </c>
       <c r="O376" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="B377" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>11</v>
@@ -15636,7 +15980,10 @@
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B378" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>11</v>
@@ -15666,12 +16013,15 @@
         <v>26</v>
       </c>
       <c r="O378" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B379" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>11</v>
@@ -15698,12 +16048,15 @@
         <v>26</v>
       </c>
       <c r="O379" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
+      </c>
+      <c r="B380" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>11</v>
@@ -15733,12 +16086,15 @@
         <v>26</v>
       </c>
       <c r="O380" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="381" spans="1:15">
       <c r="A381" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
+      </c>
+      <c r="B381" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>11</v>
@@ -15765,12 +16121,15 @@
         <v>26</v>
       </c>
       <c r="O381" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B382" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>11</v>
@@ -15797,12 +16156,15 @@
         <v>26</v>
       </c>
       <c r="O382" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B383" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>11</v>
@@ -15828,7 +16190,10 @@
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B384" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>11</v>
@@ -15858,12 +16223,15 @@
         <v>26</v>
       </c>
       <c r="O384" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="385" spans="1:15">
       <c r="A385" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B385" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>11</v>
@@ -15890,12 +16258,15 @@
         <v>26</v>
       </c>
       <c r="O385" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="386" spans="1:15">
       <c r="A386" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B386" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>11</v>
@@ -15922,12 +16293,15 @@
         <v>26</v>
       </c>
       <c r="O386" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="387" spans="1:15">
       <c r="A387" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B387" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>11</v>
@@ -15954,12 +16328,15 @@
         <v>26</v>
       </c>
       <c r="O387" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="388" spans="1:15">
       <c r="A388" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B388" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>11</v>
@@ -15986,12 +16363,15 @@
         <v>26</v>
       </c>
       <c r="O388" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="389" spans="1:15">
       <c r="A389" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B389" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>11</v>
@@ -16018,12 +16398,15 @@
         <v>26</v>
       </c>
       <c r="O389" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="390" spans="1:15">
       <c r="A390" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B390" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>11</v>
@@ -16050,12 +16433,15 @@
         <v>26</v>
       </c>
       <c r="O390" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="391" spans="1:15">
       <c r="A391" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B391" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>11</v>
@@ -16084,7 +16470,10 @@
     </row>
     <row r="392" spans="1:15">
       <c r="A392" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B392" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>11</v>
@@ -16111,12 +16500,15 @@
         <v>26</v>
       </c>
       <c r="O392" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="393" spans="1:15">
       <c r="A393" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B393" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>11</v>
@@ -16143,12 +16535,15 @@
         <v>26</v>
       </c>
       <c r="O393" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="394" spans="1:15">
       <c r="A394" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B394" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>11</v>
@@ -16175,12 +16570,15 @@
         <v>26</v>
       </c>
       <c r="O394" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B395" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>11</v>
@@ -16204,12 +16602,15 @@
         <v>0</v>
       </c>
       <c r="O395" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="396" spans="1:15">
       <c r="A396" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B396" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>11</v>
@@ -16238,7 +16639,10 @@
     </row>
     <row r="397" spans="1:15">
       <c r="A397" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B397" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>11</v>
@@ -16265,12 +16669,15 @@
         <v>26</v>
       </c>
       <c r="O397" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="398" spans="1:15">
       <c r="A398" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B398" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>11</v>
@@ -16297,12 +16704,15 @@
         <v>26</v>
       </c>
       <c r="O398" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="399" spans="1:15">
       <c r="A399" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="B399" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>11</v>
@@ -16334,7 +16744,10 @@
     </row>
     <row r="400" spans="1:15">
       <c r="A400" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="B400" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>11</v>
@@ -16366,7 +16779,10 @@
     </row>
     <row r="401" spans="1:15">
       <c r="A401" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="B401" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>11</v>
@@ -16393,12 +16809,15 @@
         <v>26</v>
       </c>
       <c r="O401" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="402" spans="1:15">
       <c r="A402" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+      <c r="B402" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>11</v>
@@ -16427,7 +16846,10 @@
     </row>
     <row r="403" spans="1:15">
       <c r="A403" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="B403" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>11</v>
@@ -16454,12 +16876,15 @@
         <v>26</v>
       </c>
       <c r="O403" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="404" spans="1:15">
       <c r="A404" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B404" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>11</v>
@@ -16486,12 +16911,15 @@
         <v>26</v>
       </c>
       <c r="O404" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="405" spans="1:15">
       <c r="A405" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B405" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>11</v>
@@ -16518,12 +16946,15 @@
         <v>26</v>
       </c>
       <c r="O405" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="406" spans="1:15">
       <c r="A406" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B406" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>11</v>
@@ -16550,12 +16981,15 @@
         <v>26</v>
       </c>
       <c r="O406" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="407" spans="1:15">
       <c r="A407" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B407" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>11</v>
@@ -16584,7 +17018,10 @@
     </row>
     <row r="408" spans="1:15">
       <c r="A408" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B408" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>11</v>
@@ -16614,12 +17051,15 @@
         <v>26</v>
       </c>
       <c r="O408" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="409" spans="1:15">
       <c r="A409" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B409" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>11</v>
@@ -16648,7 +17088,10 @@
     </row>
     <row r="410" spans="1:15">
       <c r="A410" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B410" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>11</v>
@@ -16678,12 +17121,15 @@
         <v>0</v>
       </c>
       <c r="O410" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="411" spans="1:15">
       <c r="A411" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B411" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>11</v>
@@ -16713,12 +17159,15 @@
         <v>26</v>
       </c>
       <c r="O411" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="412" spans="1:15">
       <c r="A412" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+      <c r="B412" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>11</v>
@@ -16747,7 +17196,10 @@
     </row>
     <row r="413" spans="1:15">
       <c r="A413" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B413" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>11</v>
@@ -16774,12 +17226,15 @@
         <v>26</v>
       </c>
       <c r="O413" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="414" spans="1:15">
       <c r="A414" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B414" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>11</v>
@@ -16806,12 +17261,15 @@
         <v>26</v>
       </c>
       <c r="O414" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="415" spans="1:15">
       <c r="A415" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B415" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>11</v>
@@ -16835,12 +17293,15 @@
         <v>0</v>
       </c>
       <c r="O415" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="416" spans="1:15">
       <c r="A416" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B416" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>11</v>
@@ -16867,12 +17328,15 @@
         <v>26</v>
       </c>
       <c r="O416" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="417" spans="1:15">
       <c r="A417" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B417" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>11</v>
@@ -16899,12 +17363,15 @@
         <v>26</v>
       </c>
       <c r="O417" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="418" spans="1:15">
       <c r="A418" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B418" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>11</v>
@@ -16931,12 +17398,15 @@
         <v>26</v>
       </c>
       <c r="O418" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="419" spans="1:15">
       <c r="A419" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B419" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>11</v>
@@ -16960,12 +17430,15 @@
         <v>0</v>
       </c>
       <c r="O419" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="420" spans="1:15">
       <c r="A420" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B420" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>11</v>
@@ -16992,12 +17465,15 @@
         <v>26</v>
       </c>
       <c r="O420" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="421" spans="1:15">
       <c r="A421" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+      <c r="B421" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>11</v>
@@ -17021,12 +17497,15 @@
         <v>0</v>
       </c>
       <c r="O421" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="422" spans="1:15">
       <c r="A422" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B422" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>11</v>
@@ -17053,12 +17532,15 @@
         <v>26</v>
       </c>
       <c r="O422" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="423" spans="1:15">
       <c r="A423" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B423" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>11</v>
@@ -17082,12 +17564,15 @@
         <v>0</v>
       </c>
       <c r="O423" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="424" spans="1:15">
       <c r="A424" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="B424" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>11</v>
@@ -17111,12 +17596,15 @@
         <v>0</v>
       </c>
       <c r="O424" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="425" spans="1:15">
       <c r="A425" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="B425" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>11</v>
@@ -17142,7 +17630,10 @@
     </row>
     <row r="426" spans="1:15">
       <c r="A426" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="B426" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>11</v>
@@ -17171,7 +17662,10 @@
     </row>
     <row r="427" spans="1:15">
       <c r="A427" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B427" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>11</v>
@@ -17201,12 +17695,15 @@
         <v>26</v>
       </c>
       <c r="O427" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="428" spans="1:15">
       <c r="A428" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B428" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>11</v>
@@ -17233,12 +17730,15 @@
         <v>26</v>
       </c>
       <c r="O428" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="429" spans="1:15">
       <c r="A429" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="B429" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>11</v>
@@ -17268,12 +17768,15 @@
         <v>26</v>
       </c>
       <c r="O429" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="430" spans="1:15">
       <c r="A430" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B430" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>11</v>
@@ -17300,12 +17803,15 @@
         <v>26</v>
       </c>
       <c r="O430" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="431" spans="1:15">
       <c r="A431" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
+      </c>
+      <c r="B431" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>11</v>
@@ -17332,12 +17838,15 @@
         <v>26</v>
       </c>
       <c r="O431" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="432" spans="1:15">
       <c r="A432" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B432" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>11</v>
@@ -17364,12 +17873,15 @@
         <v>26</v>
       </c>
       <c r="O432" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="433" spans="1:15">
       <c r="A433" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+      <c r="B433" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>11</v>
@@ -17396,12 +17908,15 @@
         <v>26</v>
       </c>
       <c r="O433" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="434" spans="1:15">
       <c r="A434" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B434" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>11</v>
@@ -17428,12 +17943,15 @@
         <v>26</v>
       </c>
       <c r="O434" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="435" spans="1:15">
       <c r="A435" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="B435" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>11</v>
@@ -17460,12 +17978,15 @@
         <v>26</v>
       </c>
       <c r="O435" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="436" spans="1:15">
       <c r="A436" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B436" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>11</v>
@@ -17495,12 +18016,15 @@
         <v>0</v>
       </c>
       <c r="O436" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="437" spans="1:15">
       <c r="A437" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B437" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>11</v>
@@ -17526,7 +18050,10 @@
     </row>
     <row r="438" spans="1:15">
       <c r="A438" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="B438" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>11</v>
@@ -17553,12 +18080,15 @@
         <v>26</v>
       </c>
       <c r="O438" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="439" spans="1:15">
       <c r="A439" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
+      </c>
+      <c r="B439" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>11</v>
@@ -17585,12 +18115,15 @@
         <v>26</v>
       </c>
       <c r="O439" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="440" spans="1:15">
       <c r="A440" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="B440" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>11</v>
@@ -17617,12 +18150,15 @@
         <v>26</v>
       </c>
       <c r="O440" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="441" spans="1:15">
       <c r="A441" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="B441" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>11</v>
@@ -17649,7 +18185,7 @@
         <v>26</v>
       </c>
       <c r="O441" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -17669,7 +18205,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
@@ -17681,288 +18217,288 @@
   <sheetData>
     <row r="1" spans="1:86" s="22" customFormat="1" ht="45">
       <c r="A1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="T1" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="M1" s="21" t="s">
-        <v>592</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="S1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB1" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="U1" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>598</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="AD1" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="AB1" s="21" t="s">
-        <v>623</v>
-      </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="AM1" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="AD1" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="AH1" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="AI1" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AO1" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AP1" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AR1" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AS1" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AT1" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AU1" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AW1" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="AX1" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AY1" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BB1" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BC1" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BD1" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BE1" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BF1" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BG1" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="BG1" s="21" t="s">
+      <c r="BH1" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="BH1" s="21" t="s">
+      <c r="BI1" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="BI1" s="21" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="BJ1" s="21" t="s">
+      <c r="BK1" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="BK1" s="21" t="s">
+      <c r="BL1" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BL1" s="21" t="s">
+      <c r="BM1" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="BM1" s="21" t="s">
+      <c r="BN1" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="BN1" s="21" t="s">
+      <c r="BO1" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="BO1" s="21" t="s">
+      <c r="BP1" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="BP1" s="21" t="s">
+      <c r="BQ1" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="BQ1" s="21" t="s">
+      <c r="BR1" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="BR1" s="21" t="s">
+      <c r="BS1" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="BS1" s="21" t="s">
+      <c r="BT1" s="21" t="s">
         <v>657</v>
-      </c>
-      <c r="BT1" s="21" t="s">
-        <v>658</v>
       </c>
       <c r="BU1" s="21" t="s">
         <v>507</v>
       </c>
       <c r="BV1" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="BW1" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="BW1" s="21" t="s">
+      <c r="BX1" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="BX1" s="21" t="s">
+      <c r="BY1" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="BZ1" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="CA1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="CC1" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="BY1" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="BZ1" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="CA1" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="CB1" s="21" t="s">
+      <c r="CD1" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="CC1" s="21" t="s">
+      <c r="CE1" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="CD1" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="CE1" s="21" t="s">
+      <c r="CF1" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="CF1" s="21" t="s">
+      <c r="CG1" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="CH1" s="21" t="s">
         <v>664</v>
-      </c>
-      <c r="CG1" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="CH1" s="21" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:86">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
+      <c r="B2" s="2">
+        <v>29230040138</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>36</v>
@@ -17974,7 +18510,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>0</v>
@@ -18022,10 +18558,10 @@
         <v>0</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>0</v>
@@ -18037,10 +18573,10 @@
         <v>0</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AH2" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AI2" s="11" t="s">
         <v>0</v>
@@ -18124,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>38</v>
@@ -18136,7 +18672,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>0</v>
@@ -18184,10 +18720,10 @@
         <v>0</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>0</v>
@@ -18200,7 +18736,7 @@
       </c>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>0</v>
@@ -18243,7 +18779,7 @@
       <c r="BO3" s="8"/>
       <c r="BP3" s="8"/>
       <c r="BQ3" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="BR3" s="14">
         <v>29230040113</v>
@@ -18304,7 +18840,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>55</v>
@@ -18316,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>21</v>
@@ -18328,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>0</v>
@@ -18376,10 +18912,10 @@
         <v>0</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>0</v>
@@ -18475,7 +19011,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>153</v>
@@ -18487,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>0</v>
@@ -18535,10 +19071,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>0</v>
@@ -18594,7 +19130,7 @@
       <c r="BO5" s="8"/>
       <c r="BP5" s="8"/>
       <c r="BQ5" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="BR5" s="9">
         <v>29230040113</v>
@@ -18634,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="CE5" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="CF5" s="8" t="s">
         <v>0</v>
@@ -18669,7 +19205,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>52</v>
@@ -18681,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>0</v>
@@ -18729,10 +19265,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>0</v>
@@ -18788,7 +19324,7 @@
       <c r="BO6" s="8"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="BR6" s="14">
         <v>29230040113</v>
@@ -18855,13 +19391,13 @@
         <v>7</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>142</v>
@@ -18873,7 +19409,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>0</v>
@@ -18921,10 +19457,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AD7" s="11" t="s">
         <v>0</v>
@@ -18937,7 +19473,7 @@
       </c>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AI7" s="11" t="s">
         <v>0</v>
@@ -19020,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>110</v>
@@ -19032,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>0</v>
@@ -19080,10 +19616,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>0</v>
@@ -19139,7 +19675,7 @@
       <c r="BO8" s="8"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="BR8" s="9">
         <v>29230040113</v>
@@ -19210,7 +19746,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>110</v>
@@ -19222,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>0</v>
@@ -19270,10 +19806,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>0</v>
@@ -19329,12 +19865,10 @@
       <c r="BO9" s="8"/>
       <c r="BP9" s="8"/>
       <c r="BQ9" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BR9" s="15"/>
-      <c r="BS9" s="8" t="s">
-        <v>556</v>
-      </c>
+      <c r="BS9" s="8"/>
       <c r="BT9" s="9">
         <v>47</v>
       </c>
@@ -19379,8 +19913,8 @@
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>0</v>
+      <c r="B10" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>11</v>
@@ -19398,7 +19932,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>85</v>
@@ -19410,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>0</v>
@@ -19458,10 +19992,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>0</v>
@@ -19517,9 +20051,11 @@
       <c r="BO10" s="12"/>
       <c r="BP10" s="12"/>
       <c r="BQ10" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="BR10" s="16"/>
+        <v>675</v>
+      </c>
+      <c r="BR10" s="24" t="s">
+        <v>786</v>
+      </c>
       <c r="BS10" s="12" t="s">
         <v>11</v>
       </c>
@@ -19555,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="CE10" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CF10" s="12" t="s">
         <v>0</v>
@@ -19571,8 +20107,8 @@
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>0</v>
+      <c r="B11" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>11</v>
@@ -19590,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>20</v>
@@ -19602,7 +20138,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>0</v>
@@ -19650,10 +20186,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AD11" s="8" t="s">
         <v>0</v>
@@ -19709,9 +20245,11 @@
       <c r="BO11" s="12"/>
       <c r="BP11" s="12"/>
       <c r="BQ11" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="BR11" s="16"/>
+        <v>675</v>
+      </c>
+      <c r="BR11" s="24" t="s">
+        <v>786</v>
+      </c>
       <c r="BS11" s="12" t="s">
         <v>11</v>
       </c>
@@ -19759,8 +20297,8 @@
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>0</v>
+      <c r="B12" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>11</v>
@@ -19778,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>158</v>
@@ -19790,7 +20328,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>0</v>
@@ -19838,10 +20376,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AD12" s="8" t="s">
         <v>0</v>
@@ -19854,7 +20392,7 @@
       </c>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AI12" s="8" t="s">
         <v>0</v>
@@ -19897,9 +20435,11 @@
       <c r="BO12" s="12"/>
       <c r="BP12" s="12"/>
       <c r="BQ12" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="BR12" s="16"/>
+        <v>675</v>
+      </c>
+      <c r="BR12" s="24" t="s">
+        <v>786</v>
+      </c>
       <c r="BS12" s="12" t="s">
         <v>11</v>
       </c>
@@ -19951,8 +20491,8 @@
       <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>0</v>
+      <c r="B13" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>11</v>
@@ -19964,13 +20504,13 @@
         <v>17</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>158</v>
@@ -19982,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>0</v>
@@ -20030,10 +20570,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AD13" s="11" t="s">
         <v>0</v>
@@ -20046,7 +20586,7 @@
       </c>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AI13" s="11" t="s">
         <v>0</v>
@@ -20110,8 +20650,8 @@
       <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>0</v>
+      <c r="B14" s="24" t="s">
+        <v>786</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>11</v>
@@ -20129,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>24</v>
@@ -20141,7 +20681,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>0</v>
@@ -20189,10 +20729,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AD14" s="8" t="s">
         <v>0</v>
@@ -20248,9 +20788,11 @@
       <c r="BO14" s="12"/>
       <c r="BP14" s="12"/>
       <c r="BQ14" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="BR14" s="16"/>
+        <v>675</v>
+      </c>
+      <c r="BR14" s="24" t="s">
+        <v>786</v>
+      </c>
       <c r="BS14" s="12" t="s">
         <v>11</v>
       </c>
